--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value374.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value374.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357689535661974</v>
+        <v>1.062521815299988</v>
       </c>
       <c r="B1">
-        <v>2.424955460979924</v>
+        <v>3.679196834564209</v>
       </c>
       <c r="C1">
-        <v>2.606543515154712</v>
+        <v>3.297560453414917</v>
       </c>
       <c r="D1">
-        <v>1.748056869197609</v>
+        <v>2.003660440444946</v>
       </c>
       <c r="E1">
-        <v>0.7525689345488435</v>
+        <v>1.155933141708374</v>
       </c>
     </row>
   </sheetData>
